--- a/spliced/falling/2023-03-21_15-35-08/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-08/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.389985084533691</v>
+        <v>-0.03897037506103547</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.08737320899963376</v>
+        <v>-0.04966262578964246</v>
       </c>
       <c r="C2" t="n">
-        <v>1.122915458679199</v>
+        <v>0.6067050054669385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.129088830947885</v>
+        <v>-0.3774656057357791</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.5355502605438246</v>
+        <v>-0.08384630084037778</v>
       </c>
       <c r="C3" t="n">
-        <v>2.341251343488698</v>
+        <v>1.005563378334046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.376520133018492</v>
+        <v>-0.389985084533691</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8961358070373535</v>
+        <v>-0.08737320899963376</v>
       </c>
       <c r="C4" t="n">
-        <v>3.528440594673157</v>
+        <v>1.122915458679199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.786781752109524</v>
+        <v>-3.129088830947885</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.147766584157945</v>
+        <v>-0.5355502605438246</v>
       </c>
       <c r="C5" t="n">
-        <v>5.211621630191809</v>
+        <v>2.341251343488698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.074200153350837</v>
+        <v>-4.376520133018492</v>
       </c>
       <c r="B6" t="n">
-        <v>1.294980049133306</v>
+        <v>-0.8961358070373535</v>
       </c>
       <c r="C6" t="n">
-        <v>4.674310564994808</v>
+        <v>3.528440594673157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33.04098894596114</v>
+        <v>-2.786781752109524</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.460391509532979</v>
+        <v>-1.147766584157945</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.8664929449559</v>
+        <v>5.211621630191809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33.17409253120405</v>
+        <v>1.074200153350837</v>
       </c>
       <c r="B8" t="n">
-        <v>-12.13667659759519</v>
+        <v>1.294980049133306</v>
       </c>
       <c r="C8" t="n">
-        <v>-16.41260833740226</v>
+        <v>4.674310564994808</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.199231290817252</v>
+        <v>33.04098894596114</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.979123908281309</v>
+        <v>-6.460391509532979</v>
       </c>
       <c r="C9" t="n">
-        <v>2.645077538490293</v>
+        <v>-13.8664929449559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.133084297180169</v>
+        <v>33.17409253120405</v>
       </c>
       <c r="B10" t="n">
-        <v>1.222284126281733</v>
+        <v>-12.13667659759519</v>
       </c>
       <c r="C10" t="n">
-        <v>2.30235185623169</v>
+        <v>-16.41260833740226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.011236310005188</v>
+        <v>-4.199231290817252</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.08591727167367935</v>
+        <v>-1.979123908281309</v>
       </c>
       <c r="C11" t="n">
-        <v>1.941863000392914</v>
+        <v>2.645077538490293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.760050582885739</v>
+        <v>-1.133084297180169</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.07424210608005596</v>
+        <v>1.222284126281733</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6869683876633619</v>
+        <v>2.30235185623169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4296665787696987</v>
+        <v>1.011236310005188</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.05021018907427618</v>
+        <v>-0.08591727167367935</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4772178567945989</v>
+        <v>1.941863000392914</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.509320116043069</v>
+        <v>1.760050582885739</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.4450684934854586</v>
+        <v>-0.07424210608005596</v>
       </c>
       <c r="C14" t="n">
-        <v>1.374938857555391</v>
+        <v>0.6869683876633619</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2.49392051696776</v>
+        <v>-0.4296665787696987</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.748301430046552</v>
+        <v>-0.05021018907427618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9690718531608501</v>
+        <v>0.4772178567945989</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.5127081871032715</v>
+        <v>-1.509320116043069</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.141617327928543</v>
+        <v>-0.4450684934854586</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.73384278640151</v>
+        <v>1.374938857555391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1017783880233756</v>
+        <v>2.49392051696776</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3632039599120608</v>
+        <v>-1.748301430046552</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1947979252785462</v>
+        <v>0.9690718531608501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2760831832885773</v>
+        <v>-0.5127081871032715</v>
       </c>
       <c r="B18" t="n">
-        <v>0.05902776718139471</v>
+        <v>-0.141617327928543</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4707315444946266</v>
+        <v>-0.73384278640151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7326052427291816</v>
+        <v>-0.1017783880233756</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.04417074620723105</v>
+        <v>0.3632039599120608</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2964785575866773</v>
+        <v>0.1947979252785462</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.5065834045410164</v>
+        <v>0.2760831832885773</v>
       </c>
       <c r="B20" t="n">
-        <v>1.347906202077864</v>
+        <v>0.05902776718139471</v>
       </c>
       <c r="C20" t="n">
-        <v>1.883451831340787</v>
+        <v>0.4707315444946266</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.5159368515014648</v>
+        <v>0.7326052427291816</v>
       </c>
       <c r="B21" t="n">
-        <v>1.026000052690506</v>
+        <v>-0.04417074620723105</v>
       </c>
       <c r="C21" t="n">
-        <v>1.219268858432769</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.495560121536254</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.3463274449110002</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.6439041137695279</v>
+        <v>0.2964785575866773</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-35-08/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-35-08/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.03897037506103547</v>
+        <v>0.2728629112243653</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.04966262578964246</v>
+        <v>-0.005532175302505469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6067050054669385</v>
+        <v>0.17908151820302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.3774656057357791</v>
+        <v>-0.1289855480194095</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.08384630084037778</v>
+        <v>-0.0322514295578003</v>
       </c>
       <c r="C3" t="n">
-        <v>1.005563378334046</v>
+        <v>0.2833916515111924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.389985084533691</v>
+        <v>-0.2541066646575928</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.08737320899963376</v>
+        <v>-0.01140816211700431</v>
       </c>
       <c r="C4" t="n">
-        <v>1.122915458679199</v>
+        <v>0.3126487381756305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.129088830947885</v>
+        <v>-0.1588943481445311</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5355502605438246</v>
+        <v>-0.05039391517639156</v>
       </c>
       <c r="C5" t="n">
-        <v>2.341251343488698</v>
+        <v>0.1764491081237791</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.376520133018492</v>
+        <v>0.003789019584655856</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.8961358070373535</v>
+        <v>-0.07255983948707578</v>
       </c>
       <c r="C6" t="n">
-        <v>3.528440594673157</v>
+        <v>0.1795819453895092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.786781752109524</v>
+        <v>0.0466578006744384</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.147766584157945</v>
+        <v>-0.03053182363510123</v>
       </c>
       <c r="C7" t="n">
-        <v>5.211621630191809</v>
+        <v>0.2458087503910065</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.074200153350837</v>
+        <v>-0.2323491334915166</v>
       </c>
       <c r="B8" t="n">
-        <v>1.294980049133306</v>
+        <v>-0.003547763824462882</v>
       </c>
       <c r="C8" t="n">
-        <v>4.674310564994808</v>
+        <v>0.2952604919672013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33.04098894596114</v>
+        <v>-0.07431058883666952</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.460391509532979</v>
+        <v>0.007624650001525833</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.8664929449559</v>
+        <v>0.2976654559373855</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>33.17409253120405</v>
+        <v>0.08380470275878904</v>
       </c>
       <c r="B10" t="n">
-        <v>-12.13667659759519</v>
+        <v>0.005895948410034098</v>
       </c>
       <c r="C10" t="n">
-        <v>-16.41260833740226</v>
+        <v>0.3545163981616498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.199231290817252</v>
+        <v>-0.03897037506103547</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.979123908281309</v>
+        <v>-0.04966262578964246</v>
       </c>
       <c r="C11" t="n">
-        <v>2.645077538490293</v>
+        <v>0.6067050054669385</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.133084297180169</v>
+        <v>-0.3774656057357791</v>
       </c>
       <c r="B12" t="n">
-        <v>1.222284126281733</v>
+        <v>-0.08384630084037778</v>
       </c>
       <c r="C12" t="n">
-        <v>2.30235185623169</v>
+        <v>1.005563378334046</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.011236310005188</v>
+        <v>-0.389985084533691</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.08591727167367935</v>
+        <v>-0.08737320899963376</v>
       </c>
       <c r="C13" t="n">
-        <v>1.941863000392914</v>
+        <v>1.122915458679199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.760050582885739</v>
+        <v>-3.129088830947885</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.07424210608005596</v>
+        <v>-0.5355502605438246</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6869683876633619</v>
+        <v>2.341251343488698</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4296665787696987</v>
+        <v>-4.376520133018492</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.05021018907427618</v>
+        <v>-0.8961358070373535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4772178567945989</v>
+        <v>3.528440594673157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.509320116043069</v>
+        <v>-2.786781752109524</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4450684934854586</v>
+        <v>-1.147766584157945</v>
       </c>
       <c r="C16" t="n">
-        <v>1.374938857555391</v>
+        <v>5.211621630191809</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.49392051696776</v>
+        <v>1.074200153350837</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.748301430046552</v>
+        <v>1.294980049133306</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9690718531608501</v>
+        <v>4.674310564994808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.5127081871032715</v>
+        <v>33.04098894596114</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.141617327928543</v>
+        <v>-6.460391509532979</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.73384278640151</v>
+        <v>-13.8664929449559</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1017783880233756</v>
+        <v>33.17409253120405</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3632039599120608</v>
+        <v>-12.13667659759519</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1947979252785462</v>
+        <v>-16.41260833740226</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2760831832885773</v>
+        <v>-4.199231290817252</v>
       </c>
       <c r="B20" t="n">
-        <v>0.05902776718139471</v>
+        <v>-1.979123908281309</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4707315444946266</v>
+        <v>2.645077538490293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-1.133084297180169</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.222284126281733</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.30235185623169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.011236310005188</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.08591727167367935</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.941863000392914</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.760050582885739</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.07424210608005596</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6869683876633619</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4296665787696987</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.05021018907427618</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4772178567945989</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.509320116043069</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.4450684934854586</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.374938857555391</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.49392051696776</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.748301430046552</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9690718531608501</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5127081871032715</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.141617327928543</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.73384278640151</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1017783880233756</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3632039599120608</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1947979252785462</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2760831832885773</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.05902776718139471</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4707315444946266</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.7326052427291816</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>-0.04417074620723105</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>0.2964785575866773</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.5065834045410164</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.347906202077864</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.883451831340787</v>
       </c>
     </row>
   </sheetData>
